--- a/components_info.xlsx
+++ b/components_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -312,6 +312,48 @@
   </si>
   <si>
     <t>Connect GND to GND pin. Connect VCC to 5V. Connect IN to GPIO-16 pin.</t>
+  </si>
+  <si>
+    <t>Connect GND to GND pin. Connect VCC to 5V. Connect Signal to digital GPIO pin ( for example GPIO-26 pin).</t>
+  </si>
+  <si>
+    <t>Connect GND to GND pin. Connect VCC to 5V. Connect the trigger and echo pins to separate digital GPIO pins. ( for example trigger to GPIO-5 and echo to GPIO-18 pin)</t>
+  </si>
+  <si>
+    <t>Connect GND to GND pin. Connect VCC to 3.3V. Connect data pin to any digital GPIO pin ( for example GPIO-4 pin) using 10k Ohm pull-up resistor.</t>
+  </si>
+  <si>
+    <t>This module works on SPI Communication protocol. Connect MISO to GPIO-13 pin. Connect MOSI to GPIO-12 pin. Connect SCK to GPIO-14 pin. Connect CS to GPIO-27 pin. Connect VCC to 5V pin. Connect GND to GND pin.</t>
+  </si>
+  <si>
+    <t>Connect GND to GND pin. Connect VCC to VCC 3.3V pin. Connect IRQ to GPIO-17 pin. Connect CE to GPIO-16 pin. Connect MOSI to MOSI (GPIO-23 or GPIO-13 pin). Connect MISO to MISO (GPIO-19 or GPIO-12 pin).  Connect SS to SS (GPIO-15 or GPIO-5 pin).</t>
+  </si>
+  <si>
+    <t>Connect the display using SPI communication. Connect GND to GND pin. Connect VCC to 3.3V pin. Connect MISO to GPIO-19 pin. Connect MOSI to GPIO-23 pin. Connect SCK to GPIO-18 pin. Connect D/C to GPIO-21 pin. Connect CS to GPIO-22 pin. Connect Reset to GPIO-17 pin.</t>
+  </si>
+  <si>
+    <t>Connect the SDA line of MPU6050 to GPIO-7 pin on ESP32. Connect SCL to GPIO-8 pin. Connect  GND to GND pin. Connect VCC to 3V3 pin. The other pins of MPU6050 need not be connected.</t>
+  </si>
+  <si>
+    <t>Connect each row and column to separate digital GPIO pins ( for example GPIO-2,  GPIO-0,  GPIO-4,  GPIO-16,  GPIO-17,  GPIO-5,  GPIO-18,  GPIO-19 pins).</t>
+  </si>
+  <si>
+    <t>This module uses I2C communication. Connect GND to GND pin. Connect VCC to 3.3V pin. Connect SCL to GPIO-22 pin. Connect SDA to GPIO-21 pin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This module uses SPI communication. Connect GND to GND pin. Connect VCC to 3.3V pin. Connect RST to GPIO-0 pin. Connect MISO to GPIO-19 pin. Connect MOSI to GPIO-23 pin. Connect CSK to GPIO-18 pin. Connect SDA to GPIO-5 pin. </t>
+  </si>
+  <si>
+    <t>This module uses UART communication. Connect GND to GND pin. Connect VCC to 3.3V pin. Connect TX to GPIO-1 pin. Connect RX to GPIO-3 pin.</t>
+  </si>
+  <si>
+    <t>Connect GND to GND pin. Connect VCC to 3.3V. Connect VRX to GPIO-36 pin. Connect VRY to GPIO-39 pin. Connect SW to GPIO-17 pin.</t>
+  </si>
+  <si>
+    <t>Connect GND to GND pin. Connect VCC to 3.3V or 5V pin. Connect the Signal pin to an analog pin on ESP32 ( for example GPIO-35 pin).</t>
+  </si>
+  <si>
+    <t>Connect GPIO-18 pin of the ESP32 board to pin ENA of the L298N module. Connect GPIO-5 pin of the ESP32 board to pin IN1 of the L298N module. Connect GPIO-4 pin of the ESP32 board to pin IN2 of the L298N module. Connect the GND pin of the ESP32 board to the GND pin of the L298N module.  Connect the GND pin of the ESP32 board to the (-) terminal of the 9V battery. Connect the 12V pin of L298N module to the (+) terminal of battery. Connect the two motor terminals to the two pins OUT1 and OUT2 of the L298N module</t>
   </si>
 </sst>
 </file>
@@ -652,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,6 +1446,9 @@
       <c r="C53" t="s">
         <v>8</v>
       </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -1510,6 +1555,12 @@
       <c r="B61" t="s">
         <v>86</v>
       </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -1518,6 +1569,12 @@
       <c r="B62" t="s">
         <v>86</v>
       </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -1526,6 +1583,12 @@
       <c r="B63" t="s">
         <v>86</v>
       </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -1534,45 +1597,137 @@
       <c r="B64" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
